--- a/dashboards_v2/CPO_Dashboard.xlsx
+++ b/dashboards_v2/CPO_Dashboard.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WORKFORCE_PLANNING" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="COMPENSATION_STRATEGY" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LABOR_COST_ANALYSIS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="UPLOAD_READY_PEOPLE" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CROSS_REFERENCE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="WORKFORCE PLANNING" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="COMPENSATION STRATEGY" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LABOR COST ANALYSIS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="UPLOAD READY PEOPLE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CROSS REFERENCE" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -362,12 +362,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'COMPENSATION_STRATEGY'!$A$11:$A$15</f>
+              <f>'COMPENSATION STRATEGY'!$A$11:$A$15</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'COMPENSATION_STRATEGY'!$D$11:$D$15</f>
+              <f>'COMPENSATION STRATEGY'!$D$11:$D$15</f>
             </numRef>
           </val>
         </ser>
@@ -395,12 +395,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'COMPENSATION_STRATEGY'!$A$11:$A$15</f>
+              <f>'COMPENSATION STRATEGY'!$A$11:$A$15</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'COMPENSATION_STRATEGY'!$C$11:$C$15</f>
+              <f>'COMPENSATION STRATEGY'!$C$11:$C$15</f>
             </numRef>
           </val>
         </ser>
@@ -485,12 +485,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'LABOR_COST_ANALYSIS'!$A$10:$A$15</f>
+              <f>'LABOR COST ANALYSIS'!$A$10:$A$15</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'LABOR_COST_ANALYSIS'!$C$10:$C$15</f>
+              <f>'LABOR COST ANALYSIS'!$C$10:$C$15</f>
             </numRef>
           </val>
         </ser>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C6" s="22" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v/>
       </c>
       <c r="D11" s="4" t="n">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="E11" s="18">
         <f>IF(OR(D11&lt;C11, D11&lt;650),"STRIKE RISK!","OK")</f>
@@ -1493,7 +1493,7 @@
         <v/>
       </c>
       <c r="D12" s="4" t="n">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="E12" s="18">
         <f>IF(OR(D12&lt;C12, D12&lt;650),"STRIKE RISK!","OK")</f>
@@ -1518,7 +1518,7 @@
         <v/>
       </c>
       <c r="D13" s="4" t="n">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="E13" s="18">
         <f>IF(OR(D13&lt;C13, D13&lt;650),"STRIKE RISK!","OK")</f>
@@ -1543,7 +1543,7 @@
         <v/>
       </c>
       <c r="D14" s="4" t="n">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="E14" s="18">
         <f>IF(OR(D14&lt;C14, D14&lt;650),"STRIKE RISK!","OK")</f>
@@ -1568,7 +1568,7 @@
         <v/>
       </c>
       <c r="D15" s="4" t="n">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="E15" s="18">
         <f>IF(OR(D15&lt;C15, D15&lt;650),"STRIKE RISK!","OK")</f>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="B15" s="24" t="n">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="C15" s="11">
         <f>B15</f>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B11" s="18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>

--- a/dashboards_v2/CPO_Dashboard.xlsx
+++ b/dashboards_v2/CPO_Dashboard.xlsx
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1600</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B5" s="18" t="inlineStr">
         <is>
-          <t>31200</t>
+          <t>12252</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B11" s="18" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>🟡 Excess Cash</t>
         </is>
       </c>
     </row>

--- a/dashboards_v2/CPO_Dashboard.xlsx
+++ b/dashboards_v2/CPO_Dashboard.xlsx
@@ -905,7 +905,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Benchmark (Sales Hire): $1,100</t>
+          <t>Benchmark (Sales Hire): $240</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B21" s="20">
-        <f>B19*($B$5 + 650)</f>
+        <f>B19*($B$5 + 27.3)</f>
         <v/>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B24" s="20">
-        <f>MIN(B19, B23) * 650 * 1.4</f>
+        <f>MIN(B19, B23) * 27.3 * 1.4</f>
         <v/>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
         </is>
       </c>
       <c r="B11" s="24" t="n">
-        <v>650</v>
+        <v>27.3</v>
       </c>
       <c r="C11" s="11">
         <f>B11*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D11" s="4" t="n">
-        <v>676</v>
+        <v>28</v>
       </c>
       <c r="E11" s="18">
-        <f>IF(OR(D11&lt;C11, D11&lt;650),"STRIKE RISK!","OK")</f>
+        <f>IF(OR(D11&lt;C11, D11&lt;27.3),"STRIKE RISK!","OK")</f>
         <v/>
       </c>
       <c r="F11" s="25">
@@ -1486,17 +1486,17 @@
         </is>
       </c>
       <c r="B12" s="24" t="n">
-        <v>650</v>
+        <v>27.3</v>
       </c>
       <c r="C12" s="11">
         <f>B12*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D12" s="4" t="n">
-        <v>676</v>
+        <v>28</v>
       </c>
       <c r="E12" s="18">
-        <f>IF(OR(D12&lt;C12, D12&lt;650),"STRIKE RISK!","OK")</f>
+        <f>IF(OR(D12&lt;C12, D12&lt;27.3),"STRIKE RISK!","OK")</f>
         <v/>
       </c>
       <c r="F12" s="25">
@@ -1511,17 +1511,17 @@
         </is>
       </c>
       <c r="B13" s="24" t="n">
-        <v>650</v>
+        <v>27.3</v>
       </c>
       <c r="C13" s="11">
         <f>B13*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D13" s="4" t="n">
-        <v>676</v>
+        <v>28</v>
       </c>
       <c r="E13" s="18">
-        <f>IF(OR(D13&lt;C13, D13&lt;650),"STRIKE RISK!","OK")</f>
+        <f>IF(OR(D13&lt;C13, D13&lt;27.3),"STRIKE RISK!","OK")</f>
         <v/>
       </c>
       <c r="F13" s="25">
@@ -1536,17 +1536,17 @@
         </is>
       </c>
       <c r="B14" s="24" t="n">
-        <v>650</v>
+        <v>27.3</v>
       </c>
       <c r="C14" s="11">
         <f>B14*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D14" s="4" t="n">
-        <v>676</v>
+        <v>28</v>
       </c>
       <c r="E14" s="18">
-        <f>IF(OR(D14&lt;C14, D14&lt;650),"STRIKE RISK!","OK")</f>
+        <f>IF(OR(D14&lt;C14, D14&lt;27.3),"STRIKE RISK!","OK")</f>
         <v/>
       </c>
       <c r="F14" s="25">
@@ -1561,17 +1561,17 @@
         </is>
       </c>
       <c r="B15" s="24" t="n">
-        <v>650</v>
+        <v>27.3</v>
       </c>
       <c r="C15" s="11">
         <f>B15*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D15" s="4" t="n">
-        <v>676</v>
+        <v>28</v>
       </c>
       <c r="E15" s="18">
-        <f>IF(OR(D15&lt;C15, D15&lt;650),"STRIKE RISK!","OK")</f>
+        <f>IF(OR(D15&lt;C15, D15&lt;27.3),"STRIKE RISK!","OK")</f>
         <v/>
       </c>
       <c r="F15" s="25">
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="B9" s="7">
-        <f>WORKFORCE_PLANNING!C15</f>
+        <f>'WORKFORCE PLANNING'!C15</f>
         <v/>
       </c>
       <c r="C9" s="10">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="B14" s="24">
-        <f>WORKFORCE_PLANNING!K15</f>
+        <f>'WORKFORCE PLANNING'!K15</f>
         <v/>
       </c>
       <c r="C14" s="11">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B5" s="18" t="inlineStr">
         <is>
-          <t>12252</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B11" s="18" t="inlineStr">
         <is>
-          <t>🟡 Excess Cash</t>
+          <t>🟢 OK</t>
         </is>
       </c>
     </row>
